--- a/my_excel.xlsx
+++ b/my_excel.xlsx
@@ -7,12 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1er hoja" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2da hoja" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="joel1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="joel" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1er hoja'!$A$1:$P$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$1:$P$200</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -22,8 +21,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="#,#0€"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="#,#0€"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -41,21 +40,15 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -63,49 +56,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -180,136 +140,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3476625" cy="3314700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>7</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3476625" cy="3314700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>7</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3476625" cy="3314700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>7</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3476625" cy="3314700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>7</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="3476625" cy="3314700"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,33 +435,22 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>col1</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3232</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>col4</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>columna 5</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Valor A1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Valor B1</t>
         </is>
       </c>
       <c r="F1" s="1" t="n">
@@ -644,18 +463,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="11">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>col1</t>
+        </is>
+      </c>
+      <c r="B2">
         <f>Average(C2:C20)</f>
         <v/>
       </c>
+      <c r="C2" t="n">
+        <v>3232</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>col4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>columna 5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>20,04,2020</t>
         </is>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="3" t="n">
         <v>43942</v>
       </c>
       <c r="D5" s="4" t="n"/>
@@ -672,16 +509,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>mi primera celda</t>
         </is>
@@ -690,26 +527,9 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2"/>
+    <row r="5"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>